--- a/questionnaires_swe.xlsx
+++ b/questionnaires_swe.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB170E79-8DF6-45D6-AB75-35C01F8993CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB6F10A-4232-4B84-AB52-56AB9F59D811}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sharp" sheetId="1" r:id="rId1"/>
-    <sheet name="size" sheetId="2" r:id="rId2"/>
+    <sheet name="thickthin" sheetId="2" r:id="rId2"/>
     <sheet name="smooth" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -1148,7 +1148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1842,7 +1842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A7F6AE4-FE29-4245-977D-7198840D1FAD}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
